--- a/experiment_results/results.xlsx
+++ b/experiment_results/results.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="10220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>square</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +36,55 @@
   </si>
   <si>
     <t>ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：使用61m*57m的规则矩形区域，不考虑障碍物约束，只覆盖一次，对比正四边形、正六边形和我们方法在信号传播距离不同时使用的设备数量
+ours：运行60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexagon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>square</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexagon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ours</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hexagon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备数量 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖率 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：在信号传播距离30m，墙衰减10m，玻璃衰减8m，木材衰减5m，其他衰减10m的情况下，设备数量随覆盖次数变化曲线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,8 +128,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -95,6 +154,2769 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>设备数量</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              <a:t>传播距离曲线</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" sz="1100"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="2053712096"/>
+        <c:axId val="2053703936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2053712096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053703936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2053703936"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2053712096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1:$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1:$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$H$3:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>设备数量 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$I$3:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1941026448"/>
+        <c:axId val="1941024272"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>square</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$J$3:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hexagon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1:$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>覆盖率 -</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1941016112"/>
+        <c:axId val="1941017200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1941026448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941024272"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1941024272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941026448"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1941017200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1941016112"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1941016112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1941017200"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,206 +3182,748 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" ht="60.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>3654</v>
+      </c>
+      <c r="H3">
+        <v>3717</v>
+      </c>
+      <c r="I3">
+        <v>788</v>
+      </c>
+      <c r="J3">
+        <v>47.64</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4">
+        <v>899</v>
+      </c>
+      <c r="H4">
+        <v>430</v>
+      </c>
+      <c r="I4">
+        <v>344</v>
+      </c>
+      <c r="J4">
+        <v>0.89</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="G5">
         <v>240</v>
       </c>
-      <c r="C4">
+      <c r="H5">
         <v>195</v>
       </c>
+      <c r="I5">
+        <v>175</v>
+      </c>
+      <c r="J5">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="G6">
         <v>156</v>
       </c>
-      <c r="C5">
+      <c r="H6">
         <v>110</v>
       </c>
-      <c r="D5">
+      <c r="I6">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="G7">
         <v>81</v>
       </c>
-      <c r="C6">
+      <c r="H7">
         <v>77</v>
       </c>
-      <c r="D6">
+      <c r="I7">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="G8">
         <v>64</v>
       </c>
-      <c r="C7">
+      <c r="H8">
         <v>49</v>
       </c>
-      <c r="D7">
+      <c r="I8">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="G9">
         <v>49</v>
       </c>
-      <c r="C8">
+      <c r="H9">
         <v>42</v>
       </c>
-      <c r="D8">
+      <c r="I9">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="G10">
         <v>36</v>
       </c>
-      <c r="C9">
+      <c r="H10">
         <v>33</v>
       </c>
-      <c r="D9">
+      <c r="I10">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F11">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="H11">
         <v>25</v>
       </c>
-      <c r="D10">
+      <c r="I11">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F12">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="G12">
         <v>25</v>
       </c>
-      <c r="C11">
+      <c r="H12">
         <v>23</v>
       </c>
-      <c r="D11">
+      <c r="I12">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F13">
         <v>11</v>
       </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+      <c r="H13">
+        <v>16</v>
+      </c>
+      <c r="I13">
+        <v>16</v>
+      </c>
+      <c r="J13">
+        <v>28.33</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F14">
         <v>12</v>
       </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+      <c r="H14">
+        <v>16</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F15">
         <v>13</v>
       </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+      <c r="H15">
+        <v>14</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F16">
         <v>14</v>
       </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+      <c r="H16">
+        <v>14</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="G17">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="I17">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18">
         <v>16</v>
       </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>56.04</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19">
         <v>17</v>
       </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>45.89</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F20">
         <v>18</v>
       </c>
+      <c r="G20">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>9</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>9.9700000000000006</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F21">
         <v>19</v>
       </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>7.73</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F22">
         <v>20</v>
+      </c>
+      <c r="G22">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>11.32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>36</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>73</v>
+      </c>
+      <c r="H6">
+        <v>62</v>
+      </c>
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>73</v>
+      </c>
+      <c r="H7">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>59</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>137</v>
+      </c>
+      <c r="H8">
+        <v>98</v>
+      </c>
+      <c r="I8">
+        <v>72</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>137</v>
+      </c>
+      <c r="H9">
+        <v>98</v>
+      </c>
+      <c r="I9">
+        <v>84</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>209</v>
+      </c>
+      <c r="H10">
+        <v>191</v>
+      </c>
+      <c r="I10">
+        <v>95</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.998</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>209</v>
+      </c>
+      <c r="H11">
+        <v>191</v>
+      </c>
+      <c r="I11">
+        <v>107</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.997</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>209</v>
+      </c>
+      <c r="H12">
+        <v>191</v>
+      </c>
+      <c r="I12">
+        <v>119</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>